--- a/ys_xml/B00_CodeNoteTable/001_iOS/iOS技术栈.xlsx
+++ b/ys_xml/B00_CodeNoteTable/001_iOS/iOS技术栈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="19320" yWindow="20" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="18280" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -24,863 +24,863 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="274">
   <si>
     <t>OC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Swift</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一、语言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二、内存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内存泄漏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>缓存管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>引用计数/垃圾回收</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三、网络</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http/https/dns</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>异常处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>离线发送</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>弱网络</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>流量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通信协议</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增量更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>四、存储</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>sqlite</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文件系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>nosql</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>realm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>五、渲染</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动画</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>六、线程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Runloop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>并发/队列</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>七、音/视频</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>八、框架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>性能优化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检测/量化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>瓶颈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>优化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代码质量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代码规范检测</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>监控体系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>crash</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>错误码监控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>耗时监控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>业务监控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出错补救</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>热修复（已被Apple禁）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>安全</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>沙盒</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加固</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网络安全</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黑盒测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>白盒测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自动化测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>架构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>解耦</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>抽象</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>响应式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持续集成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代码仓库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编译流程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>证书签名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>跨平台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普通需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>特殊需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>浏览器内核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>排版引擎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动态化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>配置系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>统计系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>事件流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>推荐系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CoreData</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UIView</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>九、适配</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NSTextAttachment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CoreText</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iOS 11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>机型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iPhone X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、无home键、touchID;
 2、状态栏高度 44+44；
 3、下面手势高度为 34；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>frame</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AutoResizeing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AutoLayout</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Masonry</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SnapKit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iOS 6以前</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iOS 6新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OC-AutoLayout第三方库，iOS/Mac OS X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Swift-AutoLayout第三方库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Storyboard/xib</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VFL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iOS 9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、UIStackView；
 2、Apple Pay；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Xcode 9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、tableView安全区域，默认开启估高；
 2、Core ML/ARKit；
 3、彻底舍弃 32 位；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、IPV6；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AFNetWorking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FMDB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Runtime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>十一、系统功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>十二、实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>地图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第三方分享</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第三方登录</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第三方支付</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>微信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>支付宝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>招行一网通</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>拉起应用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JS、OC交互</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>桌面快捷方式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>相机/相册</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>闹钟</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>日历</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>健康</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蓝牙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>耳机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>麦克风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>邮件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AirPlay</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3D Touch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FaceID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通知</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>陀螺仪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>加速器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>磁力计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>钥匙串</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UIDocument</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GCD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>黑魔法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>封装sdk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自制共有/私有pods库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通用链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>URL Scheme</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>音频</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>视频</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、在 xcasssets 中添加纯色作图片；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Xcode版本更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第三方库</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>核心动画+CAShapeLayer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>核心动画</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>坐标、宽高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>十、效率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>组件化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单元测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>持续集成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iPad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>知识点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2017.11.21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Runloop</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>流量统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>crash</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图片缓存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第三方库 SDWebImage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自定义控件</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UICollectionView自定义布局</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>转场</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2017.08.09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自制主页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>html5/javascript/Java/css/C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>细化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>jekyll/Github</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>其他语言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2017.08.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>组件化</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2017.09.22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、适配；
 2、灰度发布。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iOS 11 / iPhone X / Xcode 9 适配</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2017.10.13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iOS 9 通用链接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2017.11.07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>iOS 动画</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2017.11.16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、画板；
 2、Masonry框架；
 3、好莱坞原则。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2017.11.20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VFL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2017.11.17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1、敏捷开发；
 2、上架 App;
 3、iOS图像渲染。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>压缩、剪切</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>位图/Core Graphics/Core Image/GPUImage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>难点在建立数学模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>语言</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网络</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>存储</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>渲染</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>线程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>框架</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对象模型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>动态机制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Foundation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UIKit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>StoreKit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MessageUI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AVFoundation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dns</t>
   </si>
   <si>
     <t>https</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https原理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运营商劫持dns</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>处理异常情况，做好重试机制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>优化弱网络下的连接</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据结构</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>增量更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>protobuf</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>本地数据更新</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -902,86 +902,86 @@
       </rPr>
       <t>/索引的实现/sqlite的七层结构</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主键/索引/事务</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>避免缓存太多导致OOM/性能低下</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ARC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>引用计数/垃圾回收</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自动释放池</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注意解压时机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>渲染机制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图层混合/渲染时机/离屏渲染</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主线程/子线程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>多线程并发锁竞争/死锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GCD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>网络拉数据-&gt;存储-&gt;读取-&gt;展示</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图像处理</t>
   </si>
   <si>
     <t>音视频</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>图标绘制引擎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基础</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>运营需求（上线后的需求）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过各种开关控制展现的功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>包括用户增长情况，留存率，功能使用情况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>根据收集来的数据给不同用户推送不同内容，提高用户转化率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1013,7 +1013,7 @@
       </rPr>
       <t>里的使用流程</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>检测各方面的数据，量化运行性能</t>
@@ -1026,7 +1026,7 @@
   </si>
   <si>
     <t>优化范围</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1110,23 +1110,23 @@
   </si>
   <si>
     <t>卡顿监控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>数据库监控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>流量消耗监控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>内存消耗监控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>预埋功能开关配置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>避免网络传输内容被篡改，或泄露了用户名密码等敏感信息</t>
@@ -1156,7 +1156,7 @@
   </si>
   <si>
     <t>code review</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1183,48 +1183,48 @@
   </si>
   <si>
     <t>单元测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>国内常用，成本低效率高</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>把功能独立的组件抽离出来，业务模块化，分层职责清晰，互相不耦合；
 可能会带来通信麻烦；</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>粒度大小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>单向数据流</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>响应式编程</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>架构模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>MVC/MVVM/MVP/VIPER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Git/Svn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自动化测试</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>打包发布</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1248,23 +1248,23 @@
       </rPr>
       <t>包类型自动更改配置等</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Web</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代码转换</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编译</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>虚拟机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>通过将某个语言的虚拟机移植到不同平台上来运行</t>
@@ -1353,22 +1353,35 @@
   </si>
   <si>
     <t>也称Hybrid技术，H5、React Native</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.11.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARC/MRC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反编译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、SDK；
+2、蓝牙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017.12.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1433,7 +1446,7 @@
       <name val="Lucida Grande"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1443,6 +1456,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,66 +1483,66 @@
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1553,34 +1578,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -1971,10 +2011,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView showRuler="0" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
@@ -1987,404 +2027,389 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="22"/>
       <c r="D1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:4" ht="23" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:4" ht="23" customHeight="1">
-      <c r="A5" s="12"/>
+      <c r="C4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
+      <c r="A5" s="22" t="s">
+        <v>192</v>
+      </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" ht="23" customHeight="1">
-      <c r="A6" s="12"/>
+      <c r="D5" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
+      <c r="A6" s="22"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
+      <c r="D6" s="10" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
+      <c r="D7" s="10" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A8" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="23" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C11" s="22"/>
+    </row>
+    <row r="12" spans="1:4" ht="23" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="23" customHeight="1">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:4" ht="23" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="12"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" spans="1:4" ht="23" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="12"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="1" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="23" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:4" ht="23" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" ht="23" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="1" t="s">
-        <v>214</v>
+      <c r="A16" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="10" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23" customHeight="1">
-      <c r="A19" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="10" t="s">
-        <v>204</v>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="22"/>
+      <c r="D19" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="23" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" ht="23" customHeight="1">
+      <c r="A21" s="22"/>
+      <c r="B21" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="1" t="s">
-        <v>205</v>
-      </c>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" spans="1:4" ht="23" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="12"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="24" spans="1:4" ht="23" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="1" t="s">
-        <v>206</v>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="10" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="12"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="26" spans="1:4" ht="23" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="23" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="10" t="s">
-        <v>210</v>
+      <c r="A26" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="22"/>
+      <c r="D26" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="10" customFormat="1" ht="46" customHeight="1">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="14" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23" customHeight="1">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>211</v>
-      </c>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:4" ht="23" customHeight="1">
-      <c r="A29" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" s="10" customFormat="1" ht="46" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="16" t="s">
-        <v>212</v>
-      </c>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:4" ht="23" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" spans="1:4" ht="23" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" ht="23" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="12"/>
+      <c r="A31" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="10" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="23" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="12"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="22"/>
+      <c r="D33" s="10" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="34" spans="1:4" ht="23" customHeight="1">
-      <c r="A34" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="C35" s="22"/>
       <c r="D35" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="23" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="10" t="s">
-        <v>218</v>
-      </c>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
+      <c r="A36" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" spans="1:4" ht="23" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="12"/>
-    </row>
-    <row r="38" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A39" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C39" s="12"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="22"/>
+    </row>
+    <row r="38" spans="1:4" ht="23" customHeight="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="22"/>
+      <c r="D38" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="23" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" spans="1:4" ht="23" customHeight="1">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="12"/>
-    </row>
-    <row r="41" spans="1:4" ht="23" customHeight="1">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="23" customHeight="1">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="1:4" ht="23" customHeight="1">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12" t="s">
+      <c r="A40" s="22"/>
+      <c r="B40" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="C43" s="12"/>
+      <c r="C40" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="B34:C35"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:A25"/>
     <mergeCell ref="B1:C3"/>
-    <mergeCell ref="B4:C7"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A1:A7"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A8:A13"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="B26:B28"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="B26:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="40" max="16383" man="1"/>
+    <brk id="37" max="16383" man="1"/>
   </rowBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2422,7 +2447,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="23" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2430,31 +2455,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="23" customHeight="1">
-      <c r="A3" s="13"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23" customHeight="1">
-      <c r="A4" s="13"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23" customHeight="1">
-      <c r="A5" s="13"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="11" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1">
-      <c r="A6" s="13"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="23" t="s">
         <v>229</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2462,7 +2487,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
-      <c r="A8" s="13"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="11" t="s">
         <v>67</v>
       </c>
@@ -2471,7 +2496,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="46" customHeight="1">
-      <c r="A9" s="13"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="11" t="s">
         <v>68</v>
       </c>
@@ -2480,7 +2505,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="46" customHeight="1">
-      <c r="A10" s="13"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="11" t="s">
         <v>69</v>
       </c>
@@ -2489,7 +2514,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" customHeight="1">
-      <c r="A11" s="13"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="11" t="s">
         <v>70</v>
       </c>
@@ -2502,7 +2527,7 @@
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A2:A6"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2523,70 +2548,70 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="15"/>
-    <col min="2" max="2" width="14.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="2" max="2" width="14.33203125" style="13" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23" customHeight="1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
-      <c r="A2" s="13"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1">
-      <c r="A3" s="13"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="46" customHeight="1">
-      <c r="A4" s="13"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="16" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="46" customHeight="1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1">
-      <c r="A6" s="13"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2595,59 +2620,59 @@
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
-      <c r="A8" s="13"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="46" customHeight="1">
-      <c r="A9" s="13"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="23" customHeight="1">
-      <c r="A10" s="13"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="17"/>
+      <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" ht="23" customHeight="1">
-      <c r="A11" s="13"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="17"/>
+      <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3" ht="23" customHeight="1">
-      <c r="A12" s="13"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="17"/>
+      <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" ht="23" customHeight="1">
-      <c r="A13" s="13"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="23" customHeight="1">
-      <c r="A14" s="13"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="23" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -2655,14 +2680,14 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="46" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23" customHeight="1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="23" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -2671,25 +2696,25 @@
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="49" customHeight="1">
-      <c r="A18" s="13"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="46" customHeight="1">
-      <c r="A19" s="13"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="23" customHeight="1">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="23" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -2700,21 +2725,21 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="23" customHeight="1">
-      <c r="A21" s="13"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="23" customHeight="1">
-      <c r="A22" s="13"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="23" customHeight="1">
-      <c r="A23" s="13"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="11" t="s">
         <v>51</v>
       </c>
@@ -2722,14 +2747,14 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A1:A4"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="A7:A16"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A1:A4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2743,7 +2768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -2756,18 +2781,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="69" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="22" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
-      <c r="A2" s="12"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="10" t="s">
         <v>54</v>
       </c>
@@ -2776,16 +2801,16 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="23" customHeight="1">
-      <c r="A3" s="12"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23" customHeight="1">
-      <c r="A4" s="12"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="10" t="s">
         <v>56</v>
       </c>
@@ -2794,7 +2819,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="23" customHeight="1">
-      <c r="A5" s="12"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="10" t="s">
         <v>255</v>
       </c>
@@ -2803,7 +2828,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2814,34 +2839,34 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1">
-      <c r="A7" s="12"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
-      <c r="A8" s="12"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="23" customHeight="1">
-      <c r="A9" s="12"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="55" customHeight="1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2852,29 +2877,29 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="50" customHeight="1">
-      <c r="A12" s="12"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="19" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="46" customHeight="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="19" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="46" customHeight="1">
-      <c r="A14" s="12"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2884,7 +2909,7 @@
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A14"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2899,8 +2924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30:C31"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
@@ -2914,33 +2939,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="23" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="20" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="6" t="s">
         <v>157</v>
       </c>
@@ -2952,13 +2977,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="23" customHeight="1">
-      <c r="A5" s="12"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="25" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2966,8 +2991,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="23" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2978,25 +3003,28 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="23" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="23" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="26" t="s">
         <v>6</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="23" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:5" ht="23" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="26"/>
     </row>
     <row r="12" spans="1:5" ht="23" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="24" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3004,57 +3032,57 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="23" customHeight="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23" customHeight="1">
-      <c r="A14" s="12"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23" customHeight="1">
-      <c r="A15" s="12"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="23" customHeight="1">
-      <c r="A16" s="12"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="24"/>
+      <c r="B17" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="22" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" spans="1:4" ht="23" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
+      <c r="A19" s="24"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" spans="1:4" ht="23" customHeight="1">
-      <c r="A21" s="12"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="2" t="s">
         <v>140</v>
       </c>
@@ -3063,23 +3091,23 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="23" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="25"/>
+      <c r="B24" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3087,41 +3115,41 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="23" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23" customHeight="1">
-      <c r="A26" s="12"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23" customHeight="1">
-      <c r="A27" s="12"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23" customHeight="1">
-      <c r="A28" s="12"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23" customHeight="1">
-      <c r="A29" s="12"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23" customHeight="1">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="22" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3129,15 +3157,15 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="23" customHeight="1">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="24"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="24"/>
+      <c r="B32" s="22" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3148,8 +3176,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="22"/>
       <c r="C33" s="4" t="s">
         <v>183</v>
       </c>
@@ -3158,8 +3186,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="23" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="24"/>
+      <c r="B34" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3167,28 +3195,28 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="4" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="23" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3196,25 +3224,25 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="23" customHeight="1">
-      <c r="A39" s="12"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="23" customHeight="1">
-      <c r="A40" s="12"/>
+      <c r="A40" s="25"/>
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="23" customHeight="1">
-      <c r="A41" s="12"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23" customHeight="1">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3222,21 +3250,21 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="23" customHeight="1">
-      <c r="A43" s="12"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="2" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="23" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="21" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="23" customHeight="1">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="22" t="s">
         <v>76</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -3244,8 +3272,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="46" customHeight="1">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="24"/>
+      <c r="B46" s="22"/>
       <c r="C46" s="2" t="s">
         <v>93</v>
       </c>
@@ -3254,8 +3282,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="50" customHeight="1">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="24"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="2" t="s">
         <v>77</v>
       </c>
@@ -3264,8 +3292,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12" t="s">
+      <c r="A48" s="24"/>
+      <c r="B48" s="22" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -3274,8 +3302,8 @@
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" ht="53" customHeight="1">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="24"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="2" t="s">
         <v>79</v>
       </c>
@@ -3284,8 +3312,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12" t="s">
+      <c r="A50" s="24"/>
+      <c r="B50" s="22" t="s">
         <v>92</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -3296,22 +3324,22 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="23" customHeight="1">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="24"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23" customHeight="1">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="24"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23" customHeight="1">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="2" t="s">
         <v>82</v>
       </c>
@@ -3320,8 +3348,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="23" customHeight="1">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="24"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="2" t="s">
         <v>83</v>
       </c>
@@ -3330,8 +3358,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
+      <c r="A55" s="24"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="6" t="s">
         <v>84</v>
       </c>
@@ -3340,8 +3368,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="23" customHeight="1">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="2" t="s">
         <v>85</v>
       </c>
@@ -3350,7 +3378,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="46" customHeight="1">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="25" t="s">
         <v>144</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3364,42 +3392,42 @@
       </c>
     </row>
     <row r="58" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A58" s="12"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="4" t="s">
         <v>145</v>
       </c>
       <c r="D58" s="5"/>
     </row>
     <row r="59" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A59" s="12"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A60" s="12"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="4" t="s">
         <v>147</v>
       </c>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A61" s="12"/>
+      <c r="A61" s="25"/>
       <c r="B61" s="2" t="s">
         <v>153</v>
       </c>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A62" s="12"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" ht="23" customHeight="1">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="24" t="s">
         <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3407,91 +3435,91 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="23" customHeight="1">
-      <c r="A64" s="12"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="23" customHeight="1">
-      <c r="A65" s="12"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="23" customHeight="1">
-      <c r="A66" s="12"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="23" customHeight="1">
-      <c r="A67" s="12"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="23" customHeight="1">
-      <c r="A68" s="12"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="23" customHeight="1">
-      <c r="A69" s="12"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="23" customHeight="1">
-      <c r="A70" s="12"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="23" customHeight="1">
-      <c r="A71" s="12"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="23" customHeight="1">
-      <c r="A72" s="12"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="23" customHeight="1">
-      <c r="A73" s="12"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="23" customHeight="1">
-      <c r="A74" s="12"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="23" customHeight="1">
-      <c r="A75" s="12"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="23" customHeight="1">
-      <c r="A76" s="12"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="23" customHeight="1">
-      <c r="A77" s="12"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="23" customHeight="1">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="25" t="s">
         <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3499,20 +3527,20 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="23" customHeight="1">
-      <c r="A79" s="12"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="23" customHeight="1">
-      <c r="A80" s="12"/>
+      <c r="A80" s="25"/>
       <c r="B80" s="2" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="23" customHeight="1">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12" t="s">
+      <c r="A81" s="25"/>
+      <c r="B81" s="22" t="s">
         <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3520,22 +3548,22 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="23" customHeight="1">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="22"/>
       <c r="C82" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="23" customHeight="1">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="22"/>
       <c r="C83" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="23" customHeight="1">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12" t="s">
+      <c r="A84" s="25"/>
+      <c r="B84" s="22" t="s">
         <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
@@ -3543,38 +3571,41 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="23" customHeight="1">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="22"/>
       <c r="C85" s="2" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="23" customHeight="1">
-      <c r="A86" s="12"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="2" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="23" customHeight="1">
-      <c r="A87" s="12"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="23" customHeight="1">
-      <c r="A88" s="12"/>
+      <c r="A88" s="25"/>
       <c r="B88" s="2" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A89" s="12"/>
+      <c r="A89" s="25"/>
       <c r="B89" s="6" t="s">
         <v>133</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="A78:A89"/>
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="B1:B4"/>
@@ -3589,21 +3620,18 @@
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="A45:A56"/>
     <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A63:A77"/>
     <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B50:B56"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A63:A77"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -3616,10 +3644,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
@@ -3722,11 +3750,27 @@
         <v>180</v>
       </c>
     </row>
+    <row r="11" spans="1:3" ht="23" customHeight="1">
+      <c r="A11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37" customHeight="1">
+      <c r="A12" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A1:D5">
     <sortCondition ref="A1:A5"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/ys_xml/B00_CodeNoteTable/001_iOS/iOS技术栈.xlsx
+++ b/ys_xml/B00_CodeNoteTable/001_iOS/iOS技术栈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="25600" windowHeight="18280" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="6540" yWindow="0" windowWidth="25600" windowHeight="18280" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="275">
   <si>
     <t>OC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1374,6 +1374,10 @@
   </si>
   <si>
     <t>2017.12.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>崩溃日志获取与分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1542,7 +1546,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1607,19 +1611,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2027,39 +2037,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22"/>
+      <c r="C1" s="23"/>
       <c r="D1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23" customHeight="1">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:4" ht="23" customHeight="1">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="23" t="s">
         <v>192</v>
       </c>
       <c r="B5" s="12"/>
@@ -2069,7 +2079,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="10" t="s">
@@ -2077,7 +2087,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="10" t="s">
@@ -2085,7 +2095,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="10" t="s">
@@ -2093,7 +2103,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="10" t="s">
@@ -2101,119 +2111,119 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="23" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:4" ht="23" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C12" s="22"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:4" ht="23" customHeight="1">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="23"/>
+      <c r="B13" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:4" ht="23" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="22"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:4" ht="23" customHeight="1">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23" customHeight="1">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="C16" s="22"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="22"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="10" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="C18" s="22"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="10" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="22" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="22"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="22"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:4" ht="23" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:4" ht="23" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22" t="s">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="23" t="s">
         <v>207</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -2221,16 +2231,16 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="23" customHeight="1">
-      <c r="A24" s="22"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="10" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="10" t="s">
         <v>208</v>
       </c>
@@ -2239,158 +2249,135 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="23" customHeight="1">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="23"/>
       <c r="D26" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="10" customFormat="1" ht="46" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="14" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" spans="1:4" ht="23" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="22"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:4" ht="23" customHeight="1">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22" t="s">
+      <c r="A30" s="23"/>
+      <c r="B30" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="22"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" spans="1:4" ht="23" customHeight="1">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="22"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
       <c r="D32" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="23"/>
+      <c r="B33" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="22"/>
+      <c r="C33" s="23"/>
       <c r="D33" s="10" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="23" customHeight="1">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="23"/>
+      <c r="B34" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="22"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22" t="s">
+      <c r="A35" s="23"/>
+      <c r="B35" s="23" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="10" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="23" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="37" spans="1:4" ht="23" customHeight="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22" t="s">
+      <c r="A37" s="23"/>
+      <c r="B37" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="23"/>
     </row>
     <row r="38" spans="1:4" ht="23" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22" t="s">
+      <c r="A38" s="23"/>
+      <c r="B38" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="23" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22" t="s">
+      <c r="A39" s="23"/>
+      <c r="B39" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39" s="23"/>
     </row>
     <row r="40" spans="1:4" ht="23" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22" t="s">
+      <c r="A40" s="23"/>
+      <c r="B40" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="C23:C24"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B16:C16"/>
@@ -2404,6 +2391,29 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2447,7 +2457,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2455,31 +2465,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="23" customHeight="1">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23" customHeight="1">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23" customHeight="1">
-      <c r="A5" s="23"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="11" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>229</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2487,7 +2497,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="11" t="s">
         <v>67</v>
       </c>
@@ -2496,7 +2506,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="46" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="11" t="s">
         <v>68</v>
       </c>
@@ -2505,7 +2515,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="46" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>69</v>
       </c>
@@ -2514,7 +2524,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="11" t="s">
         <v>70</v>
       </c>
@@ -2555,7 +2565,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2566,7 +2576,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
-      <c r="A2" s="23"/>
+      <c r="A2" s="24"/>
       <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
@@ -2575,7 +2585,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1">
-      <c r="A3" s="23"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
@@ -2584,7 +2594,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="46" customHeight="1">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="11" t="s">
         <v>237</v>
       </c>
@@ -2593,7 +2603,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="46" customHeight="1">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2604,14 +2614,14 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1">
-      <c r="A6" s="23"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2620,14 +2630,14 @@
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="46" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
@@ -2636,43 +2646,43 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="23" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="11" t="s">
         <v>241</v>
       </c>
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" ht="23" customHeight="1">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="11" t="s">
         <v>242</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3" ht="23" customHeight="1">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" ht="23" customHeight="1">
-      <c r="A13" s="23"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="23" customHeight="1">
-      <c r="A14" s="23"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="23" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="24" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -2680,14 +2690,14 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="46" customHeight="1">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23" customHeight="1">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="24" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -2696,7 +2706,7 @@
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="49" customHeight="1">
-      <c r="A18" s="23"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
@@ -2705,7 +2715,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="46" customHeight="1">
-      <c r="A19" s="23"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="11" t="s">
         <v>47</v>
       </c>
@@ -2714,7 +2724,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="23" customHeight="1">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="24" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -2725,21 +2735,21 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="23" customHeight="1">
-      <c r="A21" s="23"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="23" customHeight="1">
-      <c r="A22" s="23"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="11" t="s">
         <v>249</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="23" customHeight="1">
-      <c r="A23" s="23"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="11" t="s">
         <v>51</v>
       </c>
@@ -2781,7 +2791,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="69" customHeight="1">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2792,7 +2802,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
-      <c r="A2" s="22"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="10" t="s">
         <v>54</v>
       </c>
@@ -2801,7 +2811,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="23" customHeight="1">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="B3" s="10" t="s">
         <v>55</v>
       </c>
@@ -2810,7 +2820,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="23" customHeight="1">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="10" t="s">
         <v>56</v>
       </c>
@@ -2819,7 +2829,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="23" customHeight="1">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="10" t="s">
         <v>255</v>
       </c>
@@ -2828,7 +2838,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2839,25 +2849,25 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="23" customHeight="1">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="55" customHeight="1">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="10" t="s">
         <v>259</v>
       </c>
@@ -2866,7 +2876,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="23" customHeight="1">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2877,7 +2887,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="50" customHeight="1">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="10" t="s">
         <v>262</v>
       </c>
@@ -2886,7 +2896,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="46" customHeight="1">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="10" t="s">
         <v>263</v>
       </c>
@@ -2895,7 +2905,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="46" customHeight="1">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="10" t="s">
         <v>264</v>
       </c>
@@ -2924,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
@@ -2939,10 +2949,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
@@ -2950,22 +2960,22 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="23" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="23"/>
       <c r="C2" s="20" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="20" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="22"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="23"/>
       <c r="C4" s="6" t="s">
         <v>157</v>
       </c>
@@ -2977,7 +2987,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="23" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2992,7 +3002,7 @@
     </row>
     <row r="7" spans="1:5" ht="23" customHeight="1">
       <c r="A7" s="25"/>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3004,11 +3014,11 @@
     </row>
     <row r="8" spans="1:5" ht="23" customHeight="1">
       <c r="A8" s="25"/>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:5" ht="23" customHeight="1">
       <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3017,14 +3027,14 @@
     </row>
     <row r="10" spans="1:5" ht="23" customHeight="1">
       <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+      <c r="B10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="23" customHeight="1">
       <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="B11" s="27"/>
     </row>
     <row r="12" spans="1:5" ht="23" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3032,57 +3042,57 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="23" customHeight="1">
-      <c r="A13" s="24"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23" customHeight="1">
-      <c r="A14" s="24"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23" customHeight="1">
-      <c r="A15" s="24"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="23" customHeight="1">
-      <c r="A16" s="24"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23" customHeight="1">
-      <c r="A18" s="24"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:4" ht="23" customHeight="1">
-      <c r="A19" s="24"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23" customHeight="1">
-      <c r="A20" s="24"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:4" ht="23" customHeight="1">
-      <c r="A21" s="24"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="2" t="s">
         <v>140</v>
       </c>
@@ -3094,20 +3104,20 @@
       <c r="A22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="23" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23" customHeight="1">
       <c r="A23" s="25"/>
-      <c r="B23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23" customHeight="1">
       <c r="A24" s="25"/>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="23" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3116,7 +3126,7 @@
     </row>
     <row r="25" spans="1:4" ht="23" customHeight="1">
       <c r="A25" s="25"/>
-      <c r="B25" s="22"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="2" t="s">
         <v>129</v>
       </c>
@@ -3146,10 +3156,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="23" customHeight="1">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="23" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3157,15 +3167,15 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="23" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A32" s="24"/>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="23" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3176,8 +3186,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="22"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="23"/>
       <c r="C33" s="4" t="s">
         <v>183</v>
       </c>
@@ -3186,8 +3196,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="23" customHeight="1">
-      <c r="A34" s="24"/>
-      <c r="B34" s="22" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="23" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3195,22 +3205,22 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="22"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="23"/>
       <c r="C35" s="4" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="22"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="23"/>
       <c r="C36" s="2" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A37" s="24"/>
-      <c r="B37" s="22"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="23"/>
       <c r="C37" s="4" t="s">
         <v>159</v>
       </c>
@@ -3242,7 +3252,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="23" customHeight="1">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3250,7 +3260,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="23" customHeight="1">
-      <c r="A43" s="24"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="2" t="s">
         <v>137</v>
       </c>
@@ -3261,10 +3271,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="23" customHeight="1">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="23" t="s">
         <v>76</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -3272,8 +3282,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="46" customHeight="1">
-      <c r="A46" s="24"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="23"/>
       <c r="C46" s="2" t="s">
         <v>93</v>
       </c>
@@ -3282,8 +3292,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="50" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="22"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="23"/>
       <c r="C47" s="2" t="s">
         <v>77</v>
       </c>
@@ -3292,8 +3302,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="22" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="23" t="s">
         <v>78</v>
       </c>
       <c r="C48" s="4" t="s">
@@ -3302,8 +3312,8 @@
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" ht="53" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="23"/>
       <c r="C49" s="2" t="s">
         <v>79</v>
       </c>
@@ -3312,8 +3322,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="22" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="23" t="s">
         <v>92</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -3324,22 +3334,22 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="23" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="22"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="23"/>
       <c r="C51" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="23" customHeight="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="22"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23" customHeight="1">
-      <c r="A53" s="24"/>
-      <c r="B53" s="22"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="23"/>
       <c r="C53" s="2" t="s">
         <v>82</v>
       </c>
@@ -3348,8 +3358,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="23" customHeight="1">
-      <c r="A54" s="24"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="23"/>
       <c r="C54" s="2" t="s">
         <v>83</v>
       </c>
@@ -3358,8 +3368,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A55" s="24"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="6" t="s">
         <v>84</v>
       </c>
@@ -3368,8 +3378,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="23" customHeight="1">
-      <c r="A56" s="24"/>
-      <c r="B56" s="22"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="23"/>
       <c r="C56" s="2" t="s">
         <v>85</v>
       </c>
@@ -3419,15 +3429,18 @@
       </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
+    <row r="62" spans="1:4" s="22" customFormat="1" ht="23" customHeight="1">
       <c r="A62" s="25"/>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="D62" s="5"/>
+      <c r="C62" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:4" ht="23" customHeight="1">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="26" t="s">
         <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
@@ -3435,85 +3448,85 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="23" customHeight="1">
-      <c r="A64" s="24"/>
+      <c r="A64" s="26"/>
       <c r="B64" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="23" customHeight="1">
-      <c r="A65" s="24"/>
+      <c r="A65" s="26"/>
       <c r="B65" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="23" customHeight="1">
-      <c r="A66" s="24"/>
+      <c r="A66" s="26"/>
       <c r="B66" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="23" customHeight="1">
-      <c r="A67" s="24"/>
+      <c r="A67" s="26"/>
       <c r="B67" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="23" customHeight="1">
-      <c r="A68" s="24"/>
+      <c r="A68" s="26"/>
       <c r="B68" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="23" customHeight="1">
-      <c r="A69" s="24"/>
+      <c r="A69" s="26"/>
       <c r="B69" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="23" customHeight="1">
-      <c r="A70" s="24"/>
+      <c r="A70" s="26"/>
       <c r="B70" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="23" customHeight="1">
-      <c r="A71" s="24"/>
+      <c r="A71" s="26"/>
       <c r="B71" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="23" customHeight="1">
-      <c r="A72" s="24"/>
+      <c r="A72" s="26"/>
       <c r="B72" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="23" customHeight="1">
-      <c r="A73" s="24"/>
+      <c r="A73" s="26"/>
       <c r="B73" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="23" customHeight="1">
-      <c r="A74" s="24"/>
+      <c r="A74" s="26"/>
       <c r="B74" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="23" customHeight="1">
-      <c r="A75" s="24"/>
+      <c r="A75" s="26"/>
       <c r="B75" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="23" customHeight="1">
-      <c r="A76" s="24"/>
+      <c r="A76" s="26"/>
       <c r="B76" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="23" customHeight="1">
-      <c r="A77" s="24"/>
+      <c r="A77" s="26"/>
       <c r="B77" s="2" t="s">
         <v>127</v>
       </c>
@@ -3540,7 +3553,7 @@
     </row>
     <row r="81" spans="1:3" ht="23" customHeight="1">
       <c r="A81" s="25"/>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="23" t="s">
         <v>106</v>
       </c>
       <c r="C81" s="2" t="s">
@@ -3549,31 +3562,31 @@
     </row>
     <row r="82" spans="1:3" ht="23" customHeight="1">
       <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
+      <c r="B82" s="23"/>
       <c r="C82" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="23" customHeight="1">
       <c r="A83" s="25"/>
-      <c r="B83" s="22"/>
+      <c r="B83" s="23"/>
       <c r="C83" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="23" customHeight="1">
+    <row r="84" spans="1:3" s="22" customFormat="1" ht="23" customHeight="1">
       <c r="A84" s="25"/>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="23" customHeight="1">
+    <row r="85" spans="1:3" s="22" customFormat="1" ht="23" customHeight="1">
       <c r="A85" s="25"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="2" t="s">
+      <c r="B85" s="23"/>
+      <c r="C85" s="22" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3603,11 +3616,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A78:A89"/>
-    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B50:B56"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A63:A77"/>
+    <mergeCell ref="A38:A41"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="A30:A37"/>
@@ -3616,20 +3638,11 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A63:A77"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A78:A89"/>
+    <mergeCell ref="A57:A62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ys_xml/B00_CodeNoteTable/001_iOS/iOS技术栈.xlsx
+++ b/ys_xml/B00_CodeNoteTable/001_iOS/iOS技术栈.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="0" windowWidth="25600" windowHeight="18280" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="5480" yWindow="60" windowWidth="25600" windowHeight="18280" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="基础" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="278">
   <si>
     <t>OC</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -404,11 +404,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、UIStackView；
-2、Apple Pay；</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Xcode 9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,10 +634,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Runloop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流量统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,10 +647,6 @@
   </si>
   <si>
     <t>第三方库 SDWebImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义控件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1378,6 +1365,32 @@
   </si>
   <si>
     <t>崩溃日志获取与分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉起App</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建桌面快捷方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义控件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、UIStackView；
+2、Apple Pay；
+3、通用链接、URL Scheme限制；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iOS 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1546,7 +1559,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1620,16 +1633,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2037,347 +2056,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" customHeight="1">
-      <c r="A1" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="23" t="s">
+      <c r="A1" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" customHeight="1">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23" customHeight="1">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:4" ht="23" customHeight="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23"/>
+      <c r="C4" s="26"/>
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A5" s="23" t="s">
-        <v>192</v>
+      <c r="A5" s="26" t="s">
+        <v>189</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A6" s="23"/>
+      <c r="A6" s="26"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="10" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="10" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="10" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="10" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A10" s="23"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="23" customHeight="1">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" ht="23" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="23" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="27"/>
+    </row>
+    <row r="14" spans="1:4" ht="23" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" ht="23" customHeight="1">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="23" customHeight="1">
+      <c r="A16" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="23" customHeight="1">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="23" customHeight="1">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:4" ht="23" customHeight="1">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="23" customHeight="1">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:4" ht="23" customHeight="1">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="23" customHeight="1">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="23" customHeight="1">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="23" customHeight="1">
+      <c r="A26" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" s="10" customFormat="1" ht="46" customHeight="1">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="23" customHeight="1">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:4" ht="23" customHeight="1">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:4" ht="23" customHeight="1">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="26"/>
+    </row>
+    <row r="31" spans="1:4" ht="23" customHeight="1">
+      <c r="A31" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="C11" s="23"/>
-    </row>
-    <row r="12" spans="1:4" ht="23" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="1:4" ht="23" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="C13" s="24"/>
-    </row>
-    <row r="14" spans="1:4" ht="23" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="1:4" ht="23" customHeight="1">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="23" customHeight="1">
-      <c r="A16" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="23"/>
-    </row>
-    <row r="17" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="10" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="23" customHeight="1">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="23" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="23"/>
-    </row>
-    <row r="21" spans="1:4" ht="23" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="23" customHeight="1">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="23"/>
-    </row>
-    <row r="23" spans="1:4" ht="23" customHeight="1">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="23" customHeight="1">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="10" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="23" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="23" customHeight="1">
-      <c r="A26" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="23"/>
-      <c r="D26" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="10" customFormat="1" ht="46" customHeight="1">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="14" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="23" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="23"/>
-    </row>
-    <row r="29" spans="1:4" ht="23" customHeight="1">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="23"/>
-    </row>
-    <row r="30" spans="1:4" ht="23" customHeight="1">
-      <c r="A30" s="23"/>
-      <c r="B30" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="23"/>
-    </row>
-    <row r="31" spans="1:4" ht="23" customHeight="1">
-      <c r="A31" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="23"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23" customHeight="1">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="23"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="23" customHeight="1">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="26"/>
+    </row>
+    <row r="35" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
+      <c r="A36" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="26" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="23" customHeight="1">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="23"/>
-    </row>
-    <row r="35" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23" t="s">
+      <c r="C36" s="26"/>
+    </row>
+    <row r="37" spans="1:4" ht="23" customHeight="1">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="26"/>
+    </row>
+    <row r="38" spans="1:4" ht="23" customHeight="1">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="23"/>
-      <c r="D35" s="10" t="s">
+    </row>
+    <row r="39" spans="1:4" ht="23" customHeight="1">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="26"/>
+    </row>
+    <row r="40" spans="1:4" ht="23" customHeight="1">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A36" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C36" s="23"/>
-    </row>
-    <row r="37" spans="1:4" ht="23" customHeight="1">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="23"/>
-    </row>
-    <row r="38" spans="1:4" ht="23" customHeight="1">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="23" customHeight="1">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="23"/>
-    </row>
-    <row r="40" spans="1:4" ht="23" customHeight="1">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="C40" s="23"/>
+      <c r="C40" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B16:C16"/>
@@ -2391,29 +2433,6 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2450,14 +2469,14 @@
         <v>62</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2465,71 +2484,71 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="23" customHeight="1">
-      <c r="A3" s="24"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23" customHeight="1">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23" customHeight="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="11" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="23" customHeight="1">
+      <c r="A7" s="27" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="23" customHeight="1">
-      <c r="A5" s="24"/>
-      <c r="B5" s="11" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="23" customHeight="1">
-      <c r="A6" s="24"/>
-      <c r="B6" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="23" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>229</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="46" customHeight="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="11" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="46" customHeight="1">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" customHeight="1">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2565,63 +2584,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
-      <c r="A2" s="24"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1">
-      <c r="A3" s="24"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="46" customHeight="1">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="46" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="27" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="27" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2630,74 +2649,74 @@
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="11" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="46" customHeight="1">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="23" customHeight="1">
+      <c r="A10" s="27"/>
+      <c r="B10" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" ht="23" customHeight="1">
+      <c r="A11" s="27"/>
+      <c r="B11" s="11" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="23" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="1:3" ht="23" customHeight="1">
-      <c r="A11" s="24"/>
-      <c r="B11" s="11" t="s">
-        <v>242</v>
-      </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3" ht="23" customHeight="1">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="11" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" ht="23" customHeight="1">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="23" customHeight="1">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="23" customHeight="1">
-      <c r="A15" s="24"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="46" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23" customHeight="1">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="27" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -2706,50 +2725,50 @@
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="49" customHeight="1">
-      <c r="A18" s="24"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="46" customHeight="1">
-      <c r="A19" s="24"/>
+      <c r="A19" s="27"/>
       <c r="B19" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="23" customHeight="1">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="27" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="23" customHeight="1">
-      <c r="A21" s="24"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="23" customHeight="1">
-      <c r="A22" s="24"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="23" customHeight="1">
-      <c r="A23" s="24"/>
+      <c r="A23" s="27"/>
       <c r="B23" s="11" t="s">
         <v>51</v>
       </c>
@@ -2791,126 +2810,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="69" customHeight="1">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
-      <c r="A2" s="23"/>
+      <c r="A2" s="26"/>
       <c r="B2" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23" customHeight="1">
-      <c r="A3" s="23"/>
+      <c r="A3" s="26"/>
       <c r="B3" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23" customHeight="1">
-      <c r="A4" s="23"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23" customHeight="1">
+      <c r="A5" s="26"/>
+      <c r="B5" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="23" customHeight="1">
-      <c r="A5" s="23"/>
-      <c r="B5" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
     <row r="6" spans="1:3" ht="23" customHeight="1">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1">
-      <c r="A7" s="23"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
-      <c r="A8" s="23"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="23" customHeight="1">
-      <c r="A9" s="23"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="55" customHeight="1">
+      <c r="A10" s="26"/>
+      <c r="B10" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="23" customHeight="1">
+      <c r="A11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="55" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="10" t="s">
+      <c r="C11" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="50" customHeight="1">
+      <c r="A12" s="26"/>
+      <c r="B12" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C12" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="46" customHeight="1">
+      <c r="A13" s="26"/>
+      <c r="B13" s="10" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="23" customHeight="1">
-      <c r="A11" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="C13" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="46" customHeight="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="50" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="10" t="s">
+      <c r="C14" s="19" t="s">
         <v>262</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="46" customHeight="1">
-      <c r="A13" s="23"/>
-      <c r="B13" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="46" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -2932,10 +2951,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
@@ -2949,51 +2968,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="23" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="23"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="20" t="s">
-        <v>152</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="23" customFormat="1" ht="23" customHeight="1">
+      <c r="A3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="6" t="s">
-        <v>157</v>
-      </c>
+      <c r="A4" s="28"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3001,40 +3021,40 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="23" customHeight="1">
-      <c r="A7" s="25"/>
-      <c r="B7" s="23" t="s">
+      <c r="A7" s="29"/>
+      <c r="B7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="23"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:5" ht="23" customHeight="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="30" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="23" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
     </row>
     <row r="11" spans="1:5" ht="23" customHeight="1">
-      <c r="A11" s="25"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
     </row>
     <row r="12" spans="1:5" ht="23" customHeight="1">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3042,82 +3062,82 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="23" customHeight="1">
-      <c r="A13" s="26"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23" customHeight="1">
-      <c r="A14" s="26"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23" customHeight="1">
-      <c r="A15" s="26"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="23" customHeight="1">
-      <c r="A16" s="26"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:4" ht="23" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23" t="s">
+      <c r="A19" s="28"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="23" customHeight="1">
-      <c r="A21" s="26"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="23" customHeight="1">
+      <c r="A22" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="23" customHeight="1">
+      <c r="A23" s="29"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="23" customHeight="1">
-      <c r="A22" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="23" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
     <row r="24" spans="1:4" ht="23" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="23" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3125,41 +3145,41 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="23" customHeight="1">
-      <c r="A25" s="25"/>
-      <c r="B25" s="23"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23" customHeight="1">
-      <c r="A26" s="25"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23" customHeight="1">
-      <c r="A27" s="25"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23" customHeight="1">
-      <c r="A28" s="25"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23" customHeight="1">
-      <c r="A29" s="25"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23" customHeight="1">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="26" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3167,37 +3187,37 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="23" customHeight="1">
-      <c r="A31" s="26"/>
-      <c r="B31" s="23"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="23" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="26" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D32" s="4" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
     <row r="34" spans="1:4" ht="23" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="23" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3205,64 +3225,64 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A37" s="26"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="23" customHeight="1">
-      <c r="A38" s="25" t="s">
+      <c r="A38" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="20" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="23" customHeight="1">
-      <c r="A39" s="25"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="23" customHeight="1">
-      <c r="A40" s="25"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="23" customHeight="1">
-      <c r="A41" s="25"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23" customHeight="1">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="23" customHeight="1">
+      <c r="A43" s="28"/>
+      <c r="B43" s="2" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="23" customHeight="1">
-      <c r="A43" s="26"/>
-      <c r="B43" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="23" customHeight="1">
@@ -3271,365 +3291,371 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="23" customHeight="1">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="26" t="s">
         <v>76</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="46" customHeight="1">
-      <c r="A46" s="26"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D46" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" s="23" customFormat="1" ht="46" customHeight="1">
+      <c r="A47" s="28"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="D47" s="24"/>
+    </row>
+    <row r="48" spans="1:4" ht="50" customHeight="1">
+      <c r="A48" s="28"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
+      <c r="A49" s="28"/>
+      <c r="B49" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4" ht="53" customHeight="1">
+      <c r="A50" s="28"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="6" customFormat="1" ht="23" customHeight="1">
+      <c r="A51" s="28"/>
+      <c r="B51" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="23" customHeight="1">
+      <c r="A52" s="28"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="23" customHeight="1">
+      <c r="A53" s="28"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="23" customHeight="1">
+      <c r="A54" s="28"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="23" customHeight="1">
+      <c r="A55" s="28"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" s="6" customFormat="1" ht="23" customHeight="1">
+      <c r="A56" s="28"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="23" customHeight="1">
+      <c r="A57" s="28"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="46" customHeight="1">
+      <c r="A58" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="50" customHeight="1">
-      <c r="A47" s="26"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A48" s="26"/>
-      <c r="B48" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="1:4" ht="53" customHeight="1">
-      <c r="A49" s="26"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A50" s="26"/>
-      <c r="B50" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="23" customHeight="1">
-      <c r="A51" s="26"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="23" customHeight="1">
-      <c r="A52" s="26"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="23" customHeight="1">
-      <c r="A53" s="26"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="23" customHeight="1">
-      <c r="A54" s="26"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A55" s="26"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="23" customHeight="1">
-      <c r="A56" s="26"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="46" customHeight="1">
-      <c r="A57" s="25" t="s">
+      <c r="D58" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
+      <c r="A59" s="29"/>
+      <c r="B59" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A58" s="25"/>
-      <c r="B58" s="4" t="s">
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
+      <c r="A60" s="29"/>
+      <c r="B60" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A59" s="25"/>
-      <c r="B59" s="4" t="s">
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
+      <c r="A61" s="29"/>
+      <c r="B61" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A60" s="25"/>
-      <c r="B60" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A61" s="25"/>
-      <c r="B61" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" s="22" customFormat="1" ht="23" customHeight="1">
-      <c r="A62" s="25"/>
-      <c r="B62" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>274</v>
-      </c>
-      <c r="D62" s="28"/>
-    </row>
-    <row r="63" spans="1:4" ht="23" customHeight="1">
-      <c r="A63" s="26" t="s">
+    <row r="62" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
+      <c r="A62" s="29"/>
+      <c r="B62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:4" s="22" customFormat="1" ht="23" customHeight="1">
+      <c r="A63" s="29"/>
+      <c r="B63" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D63" s="25"/>
+    </row>
+    <row r="64" spans="1:4" ht="23" customHeight="1">
+      <c r="A64" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="23" customHeight="1">
+      <c r="A65" s="28"/>
+      <c r="B65" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="23" customHeight="1">
+      <c r="A66" s="28"/>
+      <c r="B66" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="23" customHeight="1">
+      <c r="A67" s="28"/>
+      <c r="B67" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="23" customHeight="1">
+      <c r="A68" s="28"/>
+      <c r="B68" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="23" customHeight="1">
+      <c r="A69" s="28"/>
+      <c r="B69" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="23" customHeight="1">
+      <c r="A70" s="28"/>
+      <c r="B70" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="23" customHeight="1">
+      <c r="A71" s="28"/>
+      <c r="B71" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="23" customHeight="1">
+      <c r="A72" s="28"/>
+      <c r="B72" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="23" customHeight="1">
+      <c r="A73" s="28"/>
+      <c r="B73" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="23" customHeight="1">
+      <c r="A74" s="28"/>
+      <c r="B74" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="23" customHeight="1">
+      <c r="A75" s="28"/>
+      <c r="B75" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="23" customHeight="1">
+      <c r="A76" s="28"/>
+      <c r="B76" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="23" customHeight="1">
+      <c r="A77" s="28"/>
+      <c r="B77" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="23" customHeight="1">
+      <c r="A78" s="28"/>
+      <c r="B78" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="23" customHeight="1">
+      <c r="A79" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="23" customHeight="1">
-      <c r="A64" s="26"/>
-      <c r="B64" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="23" customHeight="1">
-      <c r="A65" s="26"/>
-      <c r="B65" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="23" customHeight="1">
-      <c r="A66" s="26"/>
-      <c r="B66" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="23" customHeight="1">
-      <c r="A67" s="26"/>
-      <c r="B67" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="23" customHeight="1">
-      <c r="A68" s="26"/>
-      <c r="B68" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="23" customHeight="1">
-      <c r="A69" s="26"/>
-      <c r="B69" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="23" customHeight="1">
-      <c r="A70" s="26"/>
-      <c r="B70" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="23" customHeight="1">
-      <c r="A71" s="26"/>
-      <c r="B71" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="23" customHeight="1">
-      <c r="A72" s="26"/>
-      <c r="B72" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="23" customHeight="1">
-      <c r="A73" s="26"/>
-      <c r="B73" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="23" customHeight="1">
-      <c r="A74" s="26"/>
-      <c r="B74" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="23" customHeight="1">
-      <c r="A75" s="26"/>
-      <c r="B75" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="23" customHeight="1">
-      <c r="A76" s="26"/>
-      <c r="B76" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="23" customHeight="1">
-      <c r="A77" s="26"/>
-      <c r="B77" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="23" customHeight="1">
-      <c r="A78" s="25" t="s">
+      <c r="B79" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="2" t="s">
+    </row>
+    <row r="80" spans="1:2" ht="23" customHeight="1">
+      <c r="A80" s="29"/>
+      <c r="B80" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="23" customHeight="1">
-      <c r="A79" s="25"/>
-      <c r="B79" s="2" t="s">
+    <row r="81" spans="1:4" ht="23" customHeight="1">
+      <c r="A81" s="29"/>
+      <c r="B81" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="23" customHeight="1">
-      <c r="A80" s="25"/>
-      <c r="B80" s="2" t="s">
+    <row r="82" spans="1:4" ht="23" customHeight="1">
+      <c r="A82" s="29"/>
+      <c r="B82" s="26" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="23" customHeight="1">
-      <c r="A81" s="25"/>
-      <c r="B81" s="23" t="s">
+      <c r="C82" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C81" s="2" t="s">
+    </row>
+    <row r="83" spans="1:4" ht="23" customHeight="1">
+      <c r="A83" s="29"/>
+      <c r="B83" s="26"/>
+      <c r="C83" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="23" customHeight="1">
-      <c r="A82" s="25"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="2" t="s">
+    <row r="84" spans="1:4" ht="23" customHeight="1">
+      <c r="A84" s="29"/>
+      <c r="B84" s="26"/>
+      <c r="C84" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="23" customHeight="1">
-      <c r="A83" s="25"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="2" t="s">
+    <row r="85" spans="1:4" s="22" customFormat="1" ht="23" customHeight="1">
+      <c r="A85" s="29"/>
+      <c r="B85" s="28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" s="22" customFormat="1" ht="23" customHeight="1">
-      <c r="A84" s="25"/>
-      <c r="B84" s="23" t="s">
+      <c r="C85" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="22" customFormat="1" ht="23" customHeight="1">
+      <c r="A86" s="29"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="23" customHeight="1">
+      <c r="A87" s="29"/>
+      <c r="B87" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" s="22" customFormat="1" ht="23" customHeight="1">
-      <c r="A85" s="25"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="22" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="23" customHeight="1">
-      <c r="A86" s="25"/>
-      <c r="B86" s="2" t="s">
+    </row>
+    <row r="88" spans="1:4" ht="23" customHeight="1">
+      <c r="A88" s="29"/>
+      <c r="B88" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="23" customHeight="1">
-      <c r="A87" s="25"/>
-      <c r="B87" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="23" customHeight="1">
-      <c r="A88" s="25"/>
-      <c r="B88" s="2" t="s">
+    <row r="89" spans="1:4" ht="23" customHeight="1">
+      <c r="A89" s="29"/>
+      <c r="B89" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" s="6" customFormat="1" ht="23" customHeight="1">
+      <c r="A90" s="29"/>
+      <c r="B90" s="6" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="89" spans="1:3" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A89" s="25"/>
-      <c r="B89" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B50:B56"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A63:A77"/>
-    <mergeCell ref="A38:A41"/>
+  <mergeCells count="28">
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="A79:A90"/>
+    <mergeCell ref="A58:A63"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="A30:A37"/>
@@ -3638,11 +3664,20 @@
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B17:B20"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A78:A89"/>
-    <mergeCell ref="A57:A62"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A12:A21"/>
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3673,110 +3708,110 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="23" customHeight="1">
       <c r="A1" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>150</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="23" customHeight="1">
       <c r="A3" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="47" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="46" customHeight="1">
       <c r="A7" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
       <c r="A8" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="23" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="46" customHeight="1">
       <c r="A10" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="23" customHeight="1">
       <c r="A11" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="37" customHeight="1">
       <c r="A12" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/ys_xml/B00_CodeNoteTable/001_iOS/iOS技术栈.xlsx
+++ b/ys_xml/B00_CodeNoteTable/001_iOS/iOS技术栈.xlsx
@@ -1559,7 +1559,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1635,6 +1635,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2056,39 +2059,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="1" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23" customHeight="1">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
     </row>
     <row r="4" spans="1:4" ht="23" customHeight="1">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>189</v>
       </c>
       <c r="B5" s="12"/>
@@ -2098,7 +2101,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="10" t="s">
@@ -2106,7 +2109,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="10" t="s">
@@ -2114,7 +2117,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="10" t="s">
@@ -2122,7 +2125,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
       <c r="D9" s="10" t="s">
@@ -2130,119 +2133,119 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:4" ht="23" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="27" t="s">
         <v>213</v>
       </c>
-      <c r="C11" s="26"/>
+      <c r="C11" s="27"/>
     </row>
     <row r="12" spans="1:4" ht="23" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="26"/>
+      <c r="C12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="23" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28" t="s">
         <v>214</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:4" ht="23" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="27"/>
     </row>
     <row r="15" spans="1:4" ht="23" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="1" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="27"/>
     </row>
     <row r="17" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="10" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="26"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="10" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="23" customHeight="1">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="26"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23" customHeight="1">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="23" customHeight="1">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="23" customHeight="1">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="27"/>
     </row>
     <row r="23" spans="1:4" ht="23" customHeight="1">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="27" t="s">
         <v>204</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -2250,16 +2253,16 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="23" customHeight="1">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="10" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23" customHeight="1">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="10" t="s">
         <v>205</v>
       </c>
@@ -2268,158 +2271,135 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="23" customHeight="1">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="26"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:4" s="10" customFormat="1" ht="46" customHeight="1">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="14" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23" customHeight="1">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="26"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:4" ht="23" customHeight="1">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="26"/>
+      <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:4" ht="23" customHeight="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="26"/>
+      <c r="C30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="23" customHeight="1">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="23" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="26"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="10" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="23" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="26"/>
+      <c r="C34" s="27"/>
     </row>
     <row r="35" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="26"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:4" s="10" customFormat="1" ht="23" customHeight="1">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="C36" s="26"/>
+      <c r="C36" s="27"/>
     </row>
     <row r="37" spans="1:4" ht="23" customHeight="1">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="26"/>
+      <c r="C37" s="27"/>
     </row>
     <row r="38" spans="1:4" ht="23" customHeight="1">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="26"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="23" customHeight="1">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="26"/>
+      <c r="C39" s="27"/>
     </row>
     <row r="40" spans="1:4" ht="23" customHeight="1">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="26"/>
+      <c r="C40" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="B31:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B1:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="C23:C24"/>
     <mergeCell ref="A26:A30"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="B16:C16"/>
@@ -2433,6 +2413,29 @@
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B1:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="B31:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2476,7 +2479,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2484,31 +2487,31 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="23" customHeight="1">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="23" customHeight="1">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="11" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="23" customHeight="1">
-      <c r="A5" s="27"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="11" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>226</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2516,7 +2519,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="11" t="s">
         <v>67</v>
       </c>
@@ -2525,7 +2528,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="46" customHeight="1">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="11" t="s">
         <v>68</v>
       </c>
@@ -2534,7 +2537,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="46" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="11" t="s">
         <v>69</v>
       </c>
@@ -2543,7 +2546,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" customHeight="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="11" t="s">
         <v>70</v>
       </c>
@@ -2584,7 +2587,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="23" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>31</v>
       </c>
       <c r="B1" s="11" t="s">
@@ -2595,7 +2598,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
-      <c r="A2" s="27"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
@@ -2604,7 +2607,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1">
-      <c r="A3" s="27"/>
+      <c r="A3" s="28"/>
       <c r="B3" s="11" t="s">
         <v>34</v>
       </c>
@@ -2613,7 +2616,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="46" customHeight="1">
-      <c r="A4" s="27"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="11" t="s">
         <v>234</v>
       </c>
@@ -2622,7 +2625,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="46" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2633,14 +2636,14 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1">
-      <c r="A6" s="27"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C6" s="11"/>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="28" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2649,14 +2652,14 @@
       <c r="C7" s="11"/>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
-      <c r="A8" s="27"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="11" t="s">
         <v>237</v>
       </c>
       <c r="C8" s="11"/>
     </row>
     <row r="9" spans="1:3" ht="46" customHeight="1">
-      <c r="A9" s="27"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="11" t="s">
         <v>39</v>
       </c>
@@ -2665,43 +2668,43 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="23" customHeight="1">
-      <c r="A10" s="27"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="11" t="s">
         <v>238</v>
       </c>
       <c r="C10" s="15"/>
     </row>
     <row r="11" spans="1:3" ht="23" customHeight="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="11" t="s">
         <v>239</v>
       </c>
       <c r="C11" s="15"/>
     </row>
     <row r="12" spans="1:3" ht="23" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="11" t="s">
         <v>240</v>
       </c>
       <c r="C12" s="15"/>
     </row>
     <row r="13" spans="1:3" ht="23" customHeight="1">
-      <c r="A13" s="27"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="11"/>
     </row>
     <row r="14" spans="1:3" ht="23" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="11"/>
     </row>
     <row r="15" spans="1:3" ht="23" customHeight="1">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -2709,14 +2712,14 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="46" customHeight="1">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23" customHeight="1">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -2725,7 +2728,7 @@
       <c r="C17" s="11"/>
     </row>
     <row r="18" spans="1:3" ht="49" customHeight="1">
-      <c r="A18" s="27"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
@@ -2734,7 +2737,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="46" customHeight="1">
-      <c r="A19" s="27"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="11" t="s">
         <v>47</v>
       </c>
@@ -2743,7 +2746,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="23" customHeight="1">
-      <c r="A20" s="27" t="s">
+      <c r="A20" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -2754,21 +2757,21 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="23" customHeight="1">
-      <c r="A21" s="27"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C21" s="11"/>
     </row>
     <row r="22" spans="1:3" ht="23" customHeight="1">
-      <c r="A22" s="27"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="11" t="s">
         <v>246</v>
       </c>
       <c r="C22" s="11"/>
     </row>
     <row r="23" spans="1:3" ht="23" customHeight="1">
-      <c r="A23" s="27"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="11" t="s">
         <v>51</v>
       </c>
@@ -2810,7 +2813,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="69" customHeight="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>52</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2821,7 +2824,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="23" customHeight="1">
-      <c r="A2" s="26"/>
+      <c r="A2" s="27"/>
       <c r="B2" s="10" t="s">
         <v>54</v>
       </c>
@@ -2830,7 +2833,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="23" customHeight="1">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="10" t="s">
         <v>55</v>
       </c>
@@ -2839,7 +2842,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="23" customHeight="1">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="10" t="s">
         <v>56</v>
       </c>
@@ -2848,7 +2851,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="23" customHeight="1">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="10" t="s">
         <v>252</v>
       </c>
@@ -2857,7 +2860,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="23" customHeight="1">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="27" t="s">
         <v>57</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -2868,25 +2871,25 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="23" customHeight="1">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="23" customHeight="1">
-      <c r="A8" s="26"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="23" customHeight="1">
-      <c r="A9" s="26"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="55" customHeight="1">
-      <c r="A10" s="26"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="10" t="s">
         <v>256</v>
       </c>
@@ -2895,7 +2898,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="23" customHeight="1">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -2906,7 +2909,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="50" customHeight="1">
-      <c r="A12" s="26"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="10" t="s">
         <v>259</v>
       </c>
@@ -2915,7 +2918,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="46" customHeight="1">
-      <c r="A13" s="26"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="10" t="s">
         <v>260</v>
       </c>
@@ -2924,7 +2927,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="46" customHeight="1">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="10" t="s">
         <v>261</v>
       </c>
@@ -2953,8 +2956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0"/>
@@ -2968,10 +2971,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="20" t="s">
@@ -2979,16 +2982,16 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="23" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="20" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="23" customFormat="1" ht="23" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="28" t="s">
+      <c r="A3" s="29"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="29" t="s">
         <v>275</v>
       </c>
       <c r="D3" s="23" t="s">
@@ -2996,9 +2999,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="6" t="s">
         <v>155</v>
       </c>
@@ -3007,13 +3010,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="23" customHeight="1">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="23" customHeight="1">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="30" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3021,8 +3024,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="23" customHeight="1">
-      <c r="A7" s="29"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3033,12 +3036,12 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="23" customHeight="1">
-      <c r="A8" s="29"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" spans="1:5" ht="23" customHeight="1">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3046,15 +3049,15 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="23" customHeight="1">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="23" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="31"/>
     </row>
     <row r="12" spans="1:5" ht="23" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -3062,57 +3065,57 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="23" customHeight="1">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="23" customHeight="1">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="23" customHeight="1">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="23" customHeight="1">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="23" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="29"/>
+      <c r="B17" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="23" customHeight="1">
-      <c r="A18" s="28"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
     </row>
     <row r="19" spans="1:4" ht="23" customHeight="1">
-      <c r="A19" s="28"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26" t="s">
+      <c r="A19" s="29"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="23" customHeight="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
     </row>
     <row r="21" spans="1:4" ht="23" customHeight="1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="2" t="s">
         <v>139</v>
       </c>
@@ -3121,23 +3124,23 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="23" customHeight="1">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23" customHeight="1">
-      <c r="A23" s="29"/>
-      <c r="B23" s="26"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="2" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="23" customHeight="1">
-      <c r="A24" s="29"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="30"/>
+      <c r="B24" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3145,41 +3148,41 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="23" customHeight="1">
-      <c r="A25" s="29"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="2" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="23" customHeight="1">
-      <c r="A26" s="29"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23" customHeight="1">
-      <c r="A27" s="29"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="23" customHeight="1">
-      <c r="A28" s="29"/>
+      <c r="A28" s="30"/>
       <c r="B28" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23" customHeight="1">
-      <c r="A29" s="29"/>
+      <c r="A29" s="30"/>
       <c r="B29" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23" customHeight="1">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3187,15 +3190,15 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="23" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="27"/>
       <c r="C31" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="26" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -3206,8 +3209,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="4" t="s">
         <v>180</v>
       </c>
@@ -3216,8 +3219,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="23" customHeight="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="26" t="s">
+      <c r="A34" s="29"/>
+      <c r="B34" s="27" t="s">
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3225,28 +3228,28 @@
       </c>
     </row>
     <row r="35" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="26"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="23" customHeight="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="2" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="23" customHeight="1">
-      <c r="A38" s="29" t="s">
+    <row r="38" spans="1:4" s="20" customFormat="1" ht="23" customHeight="1">
+      <c r="A38" s="30" t="s">
         <v>25</v>
       </c>
       <c r="B38" s="20" t="s">
@@ -3254,25 +3257,25 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="23" customHeight="1">
-      <c r="A39" s="29"/>
+      <c r="A39" s="30"/>
       <c r="B39" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="23" customHeight="1">
-      <c r="A40" s="29"/>
+      <c r="A40" s="30"/>
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="23" customHeight="1">
-      <c r="A41" s="29"/>
+      <c r="A41" s="30"/>
       <c r="B41" s="2" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="23" customHeight="1">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="29" t="s">
         <v>29</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3280,7 +3283,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="23" customHeight="1">
-      <c r="A43" s="28"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="2" t="s">
         <v>136</v>
       </c>
@@ -3291,10 +3294,10 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="23" customHeight="1">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B45" s="26" t="s">
+      <c r="B45" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -3302,8 +3305,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="46" customHeight="1">
-      <c r="A46" s="28"/>
-      <c r="B46" s="26"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="27"/>
       <c r="C46" s="2" t="s">
         <v>93</v>
       </c>
@@ -3312,16 +3315,16 @@
       </c>
     </row>
     <row r="47" spans="1:4" s="23" customFormat="1" ht="46" customHeight="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="26"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="27"/>
       <c r="C47" s="23" t="s">
         <v>277</v>
       </c>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" ht="50" customHeight="1">
-      <c r="A48" s="28"/>
-      <c r="B48" s="26"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="2" t="s">
         <v>77</v>
       </c>
@@ -3330,8 +3333,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A49" s="28"/>
-      <c r="B49" s="26" t="s">
+      <c r="A49" s="29"/>
+      <c r="B49" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -3340,8 +3343,8 @@
       <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" ht="53" customHeight="1">
-      <c r="A50" s="28"/>
-      <c r="B50" s="26"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="2" t="s">
         <v>79</v>
       </c>
@@ -3350,8 +3353,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A51" s="28"/>
-      <c r="B51" s="26" t="s">
+      <c r="A51" s="29"/>
+      <c r="B51" s="27" t="s">
         <v>92</v>
       </c>
       <c r="C51" s="6" t="s">
@@ -3362,22 +3365,22 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="23" customHeight="1">
-      <c r="A52" s="28"/>
-      <c r="B52" s="26"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="23" customHeight="1">
-      <c r="A53" s="28"/>
-      <c r="B53" s="26"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="23" customHeight="1">
-      <c r="A54" s="28"/>
-      <c r="B54" s="26"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="2" t="s">
         <v>82</v>
       </c>
@@ -3386,8 +3389,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="23" customHeight="1">
-      <c r="A55" s="28"/>
-      <c r="B55" s="26"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="2" t="s">
         <v>83</v>
       </c>
@@ -3396,8 +3399,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A56" s="28"/>
-      <c r="B56" s="26"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="6" t="s">
         <v>84</v>
       </c>
@@ -3406,8 +3409,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="23" customHeight="1">
-      <c r="A57" s="28"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="2" t="s">
         <v>85</v>
       </c>
@@ -3416,7 +3419,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="46" customHeight="1">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="30" t="s">
         <v>143</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3430,35 +3433,35 @@
       </c>
     </row>
     <row r="59" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A59" s="29"/>
+      <c r="A59" s="30"/>
       <c r="B59" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D59" s="5"/>
     </row>
     <row r="60" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A60" s="29"/>
+      <c r="A60" s="30"/>
       <c r="B60" s="4" t="s">
         <v>145</v>
       </c>
       <c r="D60" s="5"/>
     </row>
     <row r="61" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A61" s="29"/>
+      <c r="A61" s="30"/>
       <c r="B61" s="4" t="s">
         <v>146</v>
       </c>
       <c r="D61" s="5"/>
     </row>
     <row r="62" spans="1:4" s="4" customFormat="1" ht="23" customHeight="1">
-      <c r="A62" s="29"/>
+      <c r="A62" s="30"/>
       <c r="B62" s="2" t="s">
         <v>151</v>
       </c>
       <c r="D62" s="5"/>
     </row>
     <row r="63" spans="1:4" s="22" customFormat="1" ht="23" customHeight="1">
-      <c r="A63" s="29"/>
+      <c r="A63" s="30"/>
       <c r="B63" s="22" t="s">
         <v>152</v>
       </c>
@@ -3468,7 +3471,7 @@
       <c r="D63" s="25"/>
     </row>
     <row r="64" spans="1:4" ht="23" customHeight="1">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="29" t="s">
         <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3476,91 +3479,91 @@
       </c>
     </row>
     <row r="65" spans="1:2" ht="23" customHeight="1">
-      <c r="A65" s="28"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="23" customHeight="1">
-      <c r="A66" s="28"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="23" customHeight="1">
-      <c r="A67" s="28"/>
+      <c r="A67" s="29"/>
       <c r="B67" s="2" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="23" customHeight="1">
-      <c r="A68" s="28"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="23" customHeight="1">
-      <c r="A69" s="28"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="23" customHeight="1">
-      <c r="A70" s="28"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="2" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="23" customHeight="1">
-      <c r="A71" s="28"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="23" customHeight="1">
-      <c r="A72" s="28"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="23" customHeight="1">
-      <c r="A73" s="28"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="23" customHeight="1">
-      <c r="A74" s="28"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="2" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="23" customHeight="1">
-      <c r="A75" s="28"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="23" customHeight="1">
-      <c r="A76" s="28"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="23" customHeight="1">
-      <c r="A77" s="28"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="23" customHeight="1">
-      <c r="A78" s="28"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="23" customHeight="1">
-      <c r="A79" s="29" t="s">
+      <c r="A79" s="30" t="s">
         <v>101</v>
       </c>
       <c r="B79" s="2" t="s">
@@ -3568,20 +3571,20 @@
       </c>
     </row>
     <row r="80" spans="1:2" ht="23" customHeight="1">
-      <c r="A80" s="29"/>
+      <c r="A80" s="30"/>
       <c r="B80" s="2" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="23" customHeight="1">
-      <c r="A81" s="29"/>
+      <c r="A81" s="30"/>
       <c r="B81" s="2" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="23" customHeight="1">
-      <c r="A82" s="29"/>
-      <c r="B82" s="26" t="s">
+      <c r="A82" s="30"/>
+      <c r="B82" s="27" t="s">
         <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -3589,22 +3592,22 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="23" customHeight="1">
-      <c r="A83" s="29"/>
-      <c r="B83" s="26"/>
+      <c r="A83" s="30"/>
+      <c r="B83" s="27"/>
       <c r="C83" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="23" customHeight="1">
-      <c r="A84" s="29"/>
-      <c r="B84" s="26"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="27"/>
       <c r="C84" s="2" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:4" s="22" customFormat="1" ht="23" customHeight="1">
-      <c r="A85" s="29"/>
-      <c r="B85" s="28" t="s">
+      <c r="A85" s="30"/>
+      <c r="B85" s="29" t="s">
         <v>109</v>
       </c>
       <c r="C85" s="22" t="s">
@@ -3615,8 +3618,8 @@
       </c>
     </row>
     <row r="86" spans="1:4" s="22" customFormat="1" ht="23" customHeight="1">
-      <c r="A86" s="29"/>
-      <c r="B86" s="28"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="29"/>
       <c r="C86" s="22" t="s">
         <v>134</v>
       </c>
@@ -3625,31 +3628,43 @@
       </c>
     </row>
     <row r="87" spans="1:4" ht="23" customHeight="1">
-      <c r="A87" s="29"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="23" customHeight="1">
-      <c r="A88" s="29"/>
-      <c r="B88" s="2" t="s">
+    <row r="88" spans="1:4" s="26" customFormat="1" ht="23" customHeight="1">
+      <c r="A88" s="30"/>
+      <c r="B88" s="26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="23" customHeight="1">
-      <c r="A89" s="29"/>
+      <c r="A89" s="30"/>
       <c r="B89" s="2" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:4" s="6" customFormat="1" ht="23" customHeight="1">
-      <c r="A90" s="29"/>
+      <c r="A90" s="30"/>
       <c r="B90" s="6" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A45:A57"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A64:A78"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="B85:B86"/>
     <mergeCell ref="B82:B84"/>
@@ -3666,18 +3681,6 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A45:A57"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A64:A78"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="B45:B48"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
